--- a/ONCHO/Entomological survey Survey/Nigeria/2024/delta/nov 2024/ng_oncho_2411_2_river_inspection_del.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/delta/nov 2024/ng_oncho_2411_2_river_inspection_del.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\delta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\delta\nov 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC96106-432A-4804-9108-CD38B8CD378E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673B1279-707D-4D0F-A55D-CE03DE09C7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -751,9 +751,6 @@
     <t>ASHAKA</t>
   </si>
   <si>
-    <t>UTAGBAUNO</t>
-  </si>
-  <si>
     <t>ETUA</t>
   </si>
   <si>
@@ -799,9 +796,6 @@
     <t>OGBOLI</t>
   </si>
   <si>
-    <t>ILLA</t>
-  </si>
-  <si>
     <t>BOLU ANGIAMA</t>
   </si>
   <si>
@@ -874,9 +868,6 @@
     <t>DEL_ANN_N_013</t>
   </si>
   <si>
-    <t>DEL_ANN_N_014</t>
-  </si>
-  <si>
     <t>DEL_ANN_S_015</t>
   </si>
   <si>
@@ -1117,10 +1108,19 @@
     <t>DEL_WAN_M_094</t>
   </si>
   <si>
-    <t>ng_oncho_2408_2_river_inspection_del_v2</t>
-  </si>
-  <si>
-    <t>(Delta) 2. River inspection Form V2</t>
+    <t xml:space="preserve">UTAGBAUNO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILLA </t>
+  </si>
+  <si>
+    <t>DEL_OSN_N_014</t>
+  </si>
+  <si>
+    <t>(Delta) 2. River inspection Form V3</t>
+  </si>
+  <si>
+    <t>ng_oncho_2408_2_river_inspection_del_v3</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1337,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1678,7 +1699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -2513,7 +2534,7 @@
   <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD229"/>
     </sheetView>
   </sheetViews>
@@ -3282,10 +3303,10 @@
         <v>155</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E66" t="s">
         <v>164</v>
@@ -3296,13 +3317,13 @@
         <v>155</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="E67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3310,10 +3331,10 @@
         <v>155</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E68" t="s">
         <v>165</v>
@@ -3324,10 +3345,10 @@
         <v>155</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E69" t="s">
         <v>165</v>
@@ -3338,10 +3359,10 @@
         <v>155</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E70" t="s">
         <v>165</v>
@@ -3352,10 +3373,10 @@
         <v>155</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E71" t="s">
         <v>165</v>
@@ -3366,10 +3387,10 @@
         <v>155</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E72" t="s">
         <v>165</v>
@@ -3380,10 +3401,10 @@
         <v>155</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E73" t="s">
         <v>165</v>
@@ -3394,10 +3415,10 @@
         <v>155</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E74" t="s">
         <v>165</v>
@@ -3408,10 +3429,10 @@
         <v>155</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E75" t="s">
         <v>165</v>
@@ -3422,10 +3443,10 @@
         <v>155</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E76" t="s">
         <v>165</v>
@@ -3436,13 +3457,13 @@
         <v>155</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3450,10 +3471,10 @@
         <v>155</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E78" t="s">
         <v>166</v>
@@ -3464,13 +3485,13 @@
         <v>155</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E79" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3478,10 +3499,10 @@
         <v>155</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E80" t="s">
         <v>167</v>
@@ -3492,10 +3513,10 @@
         <v>155</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E81" t="s">
         <v>167</v>
@@ -3506,10 +3527,10 @@
         <v>155</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E82" t="s">
         <v>167</v>
@@ -3520,13 +3541,13 @@
         <v>155</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E83" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3534,10 +3555,10 @@
         <v>155</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E84" t="s">
         <v>168</v>
@@ -3548,10 +3569,10 @@
         <v>155</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E85" t="s">
         <v>168</v>
@@ -3562,10 +3583,10 @@
         <v>155</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E86" t="s">
         <v>168</v>
@@ -3576,10 +3597,10 @@
         <v>155</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E87" t="s">
         <v>168</v>
@@ -3590,10 +3611,10 @@
         <v>155</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E88" t="s">
         <v>168</v>
@@ -3604,13 +3625,13 @@
         <v>155</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E89" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3618,10 +3639,10 @@
         <v>155</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E90" t="s">
         <v>169</v>
@@ -3632,10 +3653,10 @@
         <v>155</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E91" t="s">
         <v>169</v>
@@ -3646,10 +3667,10 @@
         <v>155</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E92" t="s">
         <v>169</v>
@@ -3660,13 +3681,13 @@
         <v>155</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3674,10 +3695,10 @@
         <v>155</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E94" t="s">
         <v>170</v>
@@ -3688,13 +3709,13 @@
         <v>155</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E95" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3702,10 +3723,10 @@
         <v>155</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E96" t="s">
         <v>171</v>
@@ -3716,10 +3737,10 @@
         <v>155</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E97" t="s">
         <v>171</v>
@@ -3730,10 +3751,10 @@
         <v>155</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E98" t="s">
         <v>171</v>
@@ -3744,13 +3765,13 @@
         <v>155</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E99" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3758,13 +3779,13 @@
         <v>155</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E100" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3772,10 +3793,10 @@
         <v>155</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E101" t="s">
         <v>173</v>
@@ -3786,10 +3807,10 @@
         <v>155</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E102" t="s">
         <v>173</v>
@@ -3800,10 +3821,10 @@
         <v>155</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E103" t="s">
         <v>173</v>
@@ -3814,10 +3835,10 @@
         <v>155</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E104" t="s">
         <v>173</v>
@@ -3828,10 +3849,10 @@
         <v>155</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E105" t="s">
         <v>173</v>
@@ -3842,13 +3863,13 @@
         <v>155</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E106" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3856,10 +3877,10 @@
         <v>155</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="E107" t="s">
         <v>174</v>
@@ -3870,13 +3891,13 @@
         <v>155</v>
       </c>
       <c r="B108" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E108" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3884,13 +3905,13 @@
         <v>155</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E109" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3898,10 +3919,10 @@
         <v>155</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E110" t="s">
         <v>176</v>
@@ -3926,10 +3947,10 @@
         <v>155</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E112" t="s">
         <v>176</v>
@@ -3940,10 +3961,10 @@
         <v>155</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>239</v>
+        <v>356</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>239</v>
+        <v>356</v>
       </c>
       <c r="E113" t="s">
         <v>176</v>
@@ -3954,10 +3975,10 @@
         <v>155</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="E114" t="s">
         <v>176</v>
@@ -3968,10 +3989,10 @@
         <v>155</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="E115" t="s">
         <v>176</v>
@@ -3982,10 +4003,10 @@
         <v>155</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E116" t="s">
         <v>176</v>
@@ -3996,10 +4017,10 @@
         <v>155</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="E117" t="s">
         <v>176</v>
@@ -4010,10 +4031,10 @@
         <v>155</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E118" t="s">
         <v>176</v>
@@ -4024,10 +4045,10 @@
         <v>155</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E119" t="s">
         <v>177</v>
@@ -4038,10 +4059,10 @@
         <v>155</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E120" t="s">
         <v>177</v>
@@ -4052,10 +4073,10 @@
         <v>155</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E121" t="s">
         <v>177</v>
@@ -4066,10 +4087,10 @@
         <v>155</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E122" t="s">
         <v>177</v>
@@ -4080,10 +4101,10 @@
         <v>155</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E123" t="s">
         <v>177</v>
@@ -4094,10 +4115,10 @@
         <v>155</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E124" t="s">
         <v>178</v>
@@ -4108,10 +4129,10 @@
         <v>155</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E125" t="s">
         <v>179</v>
@@ -4122,10 +4143,10 @@
         <v>155</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E126" t="s">
         <v>179</v>
@@ -4136,10 +4157,10 @@
         <v>155</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E127" t="s">
         <v>180</v>
@@ -4150,10 +4171,10 @@
         <v>155</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E128" t="s">
         <v>180</v>
@@ -4164,10 +4185,10 @@
         <v>155</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E129" t="s">
         <v>180</v>
@@ -4178,10 +4199,10 @@
         <v>155</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E130" t="s">
         <v>181</v>
@@ -4192,10 +4213,10 @@
         <v>155</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E131" t="s">
         <v>181</v>
@@ -4206,10 +4227,10 @@
         <v>155</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C132" s="25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E132" t="s">
         <v>181</v>
@@ -4220,10 +4241,10 @@
         <v>155</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C133" s="25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E133" t="s">
         <v>181</v>
@@ -4234,28 +4255,28 @@
         <v>155</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C134" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E134" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="21"/>
-      <c r="C135" s="21"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
         <v>183</v>
@@ -4266,10 +4287,10 @@
         <v>38</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
         <v>183</v>
@@ -4280,10 +4301,10 @@
         <v>38</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
         <v>183</v>
@@ -4294,10 +4315,10 @@
         <v>38</v>
       </c>
       <c r="B139" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
         <v>184</v>
@@ -4308,10 +4329,10 @@
         <v>38</v>
       </c>
       <c r="B140" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
         <v>185</v>
@@ -4322,10 +4343,10 @@
         <v>38</v>
       </c>
       <c r="B141" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
         <v>186</v>
@@ -4336,10 +4357,10 @@
         <v>38</v>
       </c>
       <c r="B142" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F142" t="s">
         <v>187</v>
@@ -4350,10 +4371,10 @@
         <v>38</v>
       </c>
       <c r="B143" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F143" t="s">
         <v>188</v>
@@ -4364,10 +4385,10 @@
         <v>38</v>
       </c>
       <c r="B144" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F144" t="s">
         <v>188</v>
@@ -4378,10 +4399,10 @@
         <v>38</v>
       </c>
       <c r="B145" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F145" t="s">
         <v>188</v>
@@ -4392,10 +4413,10 @@
         <v>38</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
         <v>188</v>
@@ -4406,10 +4427,10 @@
         <v>38</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F147" t="s">
         <v>189</v>
@@ -4420,10 +4441,10 @@
         <v>38</v>
       </c>
       <c r="B148" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C148" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F148" t="s">
         <v>190</v>
@@ -4434,10 +4455,10 @@
         <v>38</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="C149" s="21" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="F149" t="s">
         <v>191</v>
@@ -4448,10 +4469,10 @@
         <v>38</v>
       </c>
       <c r="B150" s="21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C150" s="21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F150" t="s">
         <v>192</v>
@@ -4462,10 +4483,10 @@
         <v>38</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C151" s="21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F151" t="s">
         <v>193</v>
@@ -4476,10 +4497,10 @@
         <v>38</v>
       </c>
       <c r="B152" s="21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C152" s="21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F152" t="s">
         <v>194</v>
@@ -4490,10 +4511,10 @@
         <v>38</v>
       </c>
       <c r="B153" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C153" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F153" t="s">
         <v>195</v>
@@ -4504,10 +4525,10 @@
         <v>38</v>
       </c>
       <c r="B154" s="21" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C154" s="21" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F154" t="s">
         <v>196</v>
@@ -4518,10 +4539,10 @@
         <v>38</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C155" s="21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F155" t="s">
         <v>197</v>
@@ -4532,10 +4553,10 @@
         <v>38</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F156" t="s">
         <v>198</v>
@@ -4546,10 +4567,10 @@
         <v>38</v>
       </c>
       <c r="B157" s="21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C157" s="21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F157" t="s">
         <v>198</v>
@@ -4560,10 +4581,10 @@
         <v>38</v>
       </c>
       <c r="B158" s="21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C158" s="21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F158" t="s">
         <v>198</v>
@@ -4574,10 +4595,10 @@
         <v>38</v>
       </c>
       <c r="B159" s="21" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F159" t="s">
         <v>198</v>
@@ -4588,10 +4609,10 @@
         <v>38</v>
       </c>
       <c r="B160" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F160" t="s">
         <v>198</v>
@@ -4602,10 +4623,10 @@
         <v>38</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C161" s="21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F161" t="s">
         <v>198</v>
@@ -4616,10 +4637,10 @@
         <v>38</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C162" s="21" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F162" t="s">
         <v>198</v>
@@ -4630,10 +4651,10 @@
         <v>38</v>
       </c>
       <c r="B163" s="21" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C163" s="21" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F163" t="s">
         <v>199</v>
@@ -4644,10 +4665,10 @@
         <v>38</v>
       </c>
       <c r="B164" s="21" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C164" s="21" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F164" t="s">
         <v>200</v>
@@ -4658,10 +4679,10 @@
         <v>38</v>
       </c>
       <c r="B165" s="21" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F165" t="s">
         <v>201</v>
@@ -4672,10 +4693,10 @@
         <v>38</v>
       </c>
       <c r="B166" s="21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C166" s="21" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F166" t="s">
         <v>202</v>
@@ -4686,10 +4707,10 @@
         <v>38</v>
       </c>
       <c r="B167" s="21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F167" t="s">
         <v>203</v>
@@ -4700,10 +4721,10 @@
         <v>38</v>
       </c>
       <c r="B168" s="21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F168" t="s">
         <v>204</v>
@@ -4714,10 +4735,10 @@
         <v>38</v>
       </c>
       <c r="B169" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F169" t="s">
         <v>205</v>
@@ -4728,10 +4749,10 @@
         <v>38</v>
       </c>
       <c r="B170" s="21" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F170" t="s">
         <v>206</v>
@@ -4742,10 +4763,10 @@
         <v>38</v>
       </c>
       <c r="B171" s="21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F171" t="s">
         <v>207</v>
@@ -4756,10 +4777,10 @@
         <v>38</v>
       </c>
       <c r="B172" s="21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F172" t="s">
         <v>208</v>
@@ -4770,10 +4791,10 @@
         <v>38</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F173" t="s">
         <v>209</v>
@@ -4784,10 +4805,10 @@
         <v>38</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F174" t="s">
         <v>210</v>
@@ -4798,10 +4819,10 @@
         <v>38</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F175" t="s">
         <v>211</v>
@@ -4812,10 +4833,10 @@
         <v>38</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C176" s="21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F176" t="s">
         <v>212</v>
@@ -4826,10 +4847,10 @@
         <v>38</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C177" s="21" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F177" t="s">
         <v>213</v>
@@ -4840,10 +4861,10 @@
         <v>38</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C178" s="21" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F178" t="s">
         <v>214</v>
@@ -4854,10 +4875,10 @@
         <v>38</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C179" s="21" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F179" t="s">
         <v>215</v>
@@ -4868,10 +4889,10 @@
         <v>38</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F180" t="s">
         <v>216</v>
@@ -4882,10 +4903,10 @@
         <v>38</v>
       </c>
       <c r="B181" s="21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C181" s="21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F181" t="s">
         <v>217</v>
@@ -4896,10 +4917,10 @@
         <v>38</v>
       </c>
       <c r="B182" s="21" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C182" s="21" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F182" t="s">
         <v>218</v>
@@ -4910,10 +4931,10 @@
         <v>38</v>
       </c>
       <c r="B183" s="21" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C183" s="21" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F183" t="s">
         <v>219</v>
@@ -4924,10 +4945,10 @@
         <v>38</v>
       </c>
       <c r="B184" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C184" s="21" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F184" t="s">
         <v>220</v>
@@ -4938,10 +4959,10 @@
         <v>38</v>
       </c>
       <c r="B185" s="21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C185" s="21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F185" t="s">
         <v>221</v>
@@ -4952,10 +4973,10 @@
         <v>38</v>
       </c>
       <c r="B186" s="21" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C186" s="21" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F186" t="s">
         <v>222</v>
@@ -4966,10 +4987,10 @@
         <v>38</v>
       </c>
       <c r="B187" s="21" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C187" s="21" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F187" t="s">
         <v>223</v>
@@ -4980,10 +5001,10 @@
         <v>38</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C188" s="21" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F188" t="s">
         <v>224</v>
@@ -4994,10 +5015,10 @@
         <v>38</v>
       </c>
       <c r="B189" s="21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C189" s="21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F189" t="s">
         <v>225</v>
@@ -5008,10 +5029,10 @@
         <v>38</v>
       </c>
       <c r="B190" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C190" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F190" t="s">
         <v>226</v>
@@ -5022,10 +5043,10 @@
         <v>38</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C191" s="21" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F191" t="s">
         <v>227</v>
@@ -5036,10 +5057,10 @@
         <v>38</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C192" s="21" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F192" t="s">
         <v>228</v>
@@ -5050,10 +5071,10 @@
         <v>38</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C193" s="21" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F193" t="s">
         <v>229</v>
@@ -5064,10 +5085,10 @@
         <v>38</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C194" s="21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F194" t="s">
         <v>230</v>
@@ -5078,10 +5099,10 @@
         <v>38</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C195" s="21" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F195" t="s">
         <v>231</v>
@@ -5092,10 +5113,10 @@
         <v>38</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F196" t="s">
         <v>232</v>
@@ -5106,10 +5127,10 @@
         <v>38</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C197" s="21" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F197" t="s">
         <v>233</v>
@@ -5120,10 +5141,10 @@
         <v>38</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C198" s="21" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F198" t="s">
         <v>234</v>
@@ -5134,10 +5155,10 @@
         <v>38</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C199" s="21" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F199" t="s">
         <v>235</v>
@@ -5148,13 +5169,13 @@
         <v>38</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C200" s="21" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F200" t="s">
-        <v>236</v>
+        <v>355</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5162,13 +5183,13 @@
         <v>38</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C201" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F201" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5176,13 +5197,13 @@
         <v>38</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C202" s="21" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F202" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5190,13 +5211,13 @@
         <v>38</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C203" s="21" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F203" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5204,13 +5225,13 @@
         <v>38</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C204" s="21" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F204" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5218,13 +5239,13 @@
         <v>38</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F205" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5232,13 +5253,13 @@
         <v>38</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F206" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5246,13 +5267,13 @@
         <v>38</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F207" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5260,13 +5281,13 @@
         <v>38</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C208" s="21" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F208" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5274,13 +5295,13 @@
         <v>38</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C209" s="21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F209" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5288,13 +5309,13 @@
         <v>38</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C210" s="21" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F210" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5302,13 +5323,13 @@
         <v>38</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C211" s="21" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F211" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5316,13 +5337,13 @@
         <v>38</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C212" s="21" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F212" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5330,13 +5351,13 @@
         <v>38</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C213" s="21" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F213" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5344,13 +5365,13 @@
         <v>38</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C214" s="21" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F214" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5358,13 +5379,13 @@
         <v>38</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C215" s="21" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F215" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5372,13 +5393,13 @@
         <v>38</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C216" s="21" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F216" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -5386,13 +5407,13 @@
         <v>38</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C217" s="21" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F217" t="s">
-        <v>252</v>
+        <v>356</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -5400,13 +5421,13 @@
         <v>38</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C218" s="21" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F218" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -5414,13 +5435,13 @@
         <v>38</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C219" s="21" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F219" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -5428,13 +5449,13 @@
         <v>38</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C220" s="21" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F220" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -5442,13 +5463,13 @@
         <v>38</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C221" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F221" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -5456,13 +5477,13 @@
         <v>38</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C222" s="21" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F222" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -5470,13 +5491,13 @@
         <v>38</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C223" s="21" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F223" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -5484,13 +5505,13 @@
         <v>38</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C224" s="21" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F224" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -5498,13 +5519,13 @@
         <v>38</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C225" s="21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F225" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -5512,13 +5533,13 @@
         <v>38</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C226" s="21" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F226" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -5526,13 +5547,13 @@
         <v>38</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C227" s="21" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F227" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -5540,13 +5561,13 @@
         <v>38</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C228" s="21" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F228" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -5554,16 +5575,20 @@
         <v>38</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C229" s="21" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F229" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B32:B229">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -5573,8 +5598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5598,10 +5623,10 @@
     </row>
     <row r="2" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>359</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>358</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>21</v>
